--- a/Sag_fault_calculation/line_data_q2.xlsx
+++ b/Sag_fault_calculation/line_data_q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kople\Documents\Personal Git repos\UM-coursework\Sag_fault_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A3E957-3ACF-4B62-B3C3-9D93CBE1DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2092E-3F74-4BAE-8748-BE5875925773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2532" yWindow="1824" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
